--- a/Base/Teams/Panthers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/Base/Teams/Panthers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>4</v>

--- a/Base/Teams/Panthers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/2021 Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/Base/Teams/Panthers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C3">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="C3">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Panthers/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C3">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C3">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>4</v>
